--- a/Tourist/2560.xlsx
+++ b/Tourist/2560.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\Tourist\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED58D9-486C-4BDE-8EBB-C5CFC3EC2ED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan" sheetId="1" r:id="rId1"/>
@@ -30,12 +31,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="57">
   <si>
     <t>Number</t>
   </si>
@@ -211,10 +218,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -434,9 +440,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,12 +643,13 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 3" xfId="3"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,11 +960,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1469,35 +1476,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="50">
+        <v>1846292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44">
+        <v>67866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43">
+        <v>40247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44">
+        <v>134433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43">
+        <v>253355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44">
+        <v>30453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43">
+        <v>34606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44">
+        <v>72933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43">
+        <v>62664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44">
+        <v>805616</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43">
+        <v>55955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="44">
+        <v>110656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="43">
+        <v>123236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="44">
+        <v>49341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="45">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="46">
+        <v>477946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="47">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="44">
+        <v>7832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="43">
+        <v>10390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="44">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="43">
+        <v>54347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="44">
+        <v>72732</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="43">
+        <v>14679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="44">
+        <v>15604</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="43">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="44">
+        <v>105592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="43">
+        <v>15974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="44">
+        <v>17863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="43">
+        <v>16625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="44">
+        <v>75431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="43">
+        <v>29636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="48">
+        <v>19335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="46">
+        <v>113155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="47">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="44">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="43">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="44">
+        <v>77854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="45">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="46">
+        <v>139037</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="47">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="44">
+        <v>112472</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="43">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="44">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="43">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="48">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="46">
+        <v>82012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="47">
+        <v>71167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="44">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="46">
+        <v>52517</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="47">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="44">
+        <v>14443</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="43">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="44">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="43">
+        <v>6861</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="48">
+        <v>23599</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="46">
+        <v>14984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="47">
+        <v>7985</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="48">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="49">
+        <v>2725943</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="50">
+        <v>2281488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44">
+        <v>105528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43">
+        <v>51347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44">
+        <v>144479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43">
+        <v>200664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44">
+        <v>34261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43">
+        <v>35355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="44">
+        <v>105888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43">
+        <v>70475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1070608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43">
+        <v>80083</v>
+      </c>
+      <c r="D13" s="68"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="44">
+        <v>149404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="43">
+        <v>167624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="44">
+        <v>57143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="45">
+        <v>7763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="46">
+        <v>697131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="47">
+        <v>10832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="44">
+        <v>10614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="43">
+        <v>13736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="44">
+        <v>18011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="43">
+        <v>58538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="44">
+        <v>87484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="43">
+        <v>23696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="44">
+        <v>19767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="43">
+        <v>12247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="44">
+        <v>198667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="43">
+        <v>17419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="44">
+        <v>28834</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="43">
+        <v>21356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="44">
+        <v>82401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="43">
+        <v>65176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="48">
+        <v>28353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="46">
+        <v>155873</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="47">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="44">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="43">
+        <v>28149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="44">
+        <v>112160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="45">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="46">
+        <v>176362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="47">
+        <v>12371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="44">
+        <v>141775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="43">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="44">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="43">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="48">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="46">
+        <v>73115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="47">
+        <v>63620</v>
+      </c>
+      <c r="D49" s="68"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="44">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="46">
+        <v>49465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="47">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="44">
+        <v>13812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="43">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="44">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="43">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="48">
+        <v>24259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="46">
+        <v>15725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="47">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="48">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="49">
+        <v>3449159</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2008,11 +3023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2523,11 +3538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3038,11 +4053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3553,11 +4568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4069,11 +5084,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4584,11 +5599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5099,11 +6114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5614,11 +6629,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
